--- a/Excel/character.xlsx
+++ b/Excel/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TTT</t>
+    <t>TTTT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,6 +109,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,7 +196,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -385,18 +453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -407,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -418,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -429,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
